--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_first.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/1_Result_Tables/4_ifoCAST_evaluations_matched/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_5F5E620E7E6116BDA4E1BD11FAF2D3C274555634" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="3260" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -65,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,25 +106,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -250,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,16 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,70 +424,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.43612963645934782</v>
+        <v>0.4361296364593478</v>
       </c>
       <c r="C2">
-        <v>1.2289356390457711</v>
+        <v>1.228935639045771</v>
       </c>
       <c r="D2">
-        <v>4.4390636114433404</v>
+        <v>4.43906361144334</v>
       </c>
       <c r="E2">
-        <v>2.1069085436827439</v>
+        <v>2.106908543682744</v>
       </c>
       <c r="F2">
-        <v>2.1121783256220188</v>
+        <v>2.112178325622019</v>
       </c>
       <c r="G2">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.62123406437245277</v>
+        <v>-0.6212340643724528</v>
       </c>
       <c r="C3">
-        <v>1.6983847087515409</v>
+        <v>1.698384708751541</v>
       </c>
       <c r="D3">
-        <v>13.762950964905651</v>
+        <v>13.76295096490565</v>
       </c>
       <c r="E3">
-        <v>3.7098451402862702</v>
+        <v>3.70984514028627</v>
       </c>
       <c r="F3">
-        <v>3.7477820323862732</v>
+        <v>3.747782032386273</v>
       </c>
       <c r="G3">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.61273041390992145</v>
+        <v>0.6127304139099214</v>
       </c>
       <c r="C4">
         <v>1.173648113029012</v>
       </c>
       <c r="D4">
-        <v>6.3178432616629339</v>
+        <v>6.317843261662934</v>
       </c>
       <c r="E4">
-        <v>2.5135320291698959</v>
+        <v>2.513532029169896</v>
       </c>
       <c r="F4">
-        <v>2.5010323555921148</v>
+        <v>2.501032355592115</v>
       </c>
       <c r="G4">
         <v>20</v>

--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_first.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.6212340643724528</v>
+        <v>-0.579113769187642</v>
       </c>
       <c r="C3">
-        <v>1.698384708751541</v>
+        <v>1.63506778697617</v>
       </c>
       <c r="D3">
-        <v>13.76295096490565</v>
+        <v>13.14160213705591</v>
       </c>
       <c r="E3">
-        <v>3.70984514028627</v>
+        <v>3.625134775019531</v>
       </c>
       <c r="F3">
-        <v>3.747782032386273</v>
+        <v>3.662792626675848</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6127304139099214</v>
+        <v>0.6174351661100629</v>
       </c>
       <c r="C4">
-        <v>1.173648113029012</v>
+        <v>1.151642498604435</v>
       </c>
       <c r="D4">
-        <v>6.317843261662934</v>
+        <v>6.041101927293427</v>
       </c>
       <c r="E4">
-        <v>2.513532029169896</v>
+        <v>2.45786531919335</v>
       </c>
       <c r="F4">
-        <v>2.501032355592115</v>
+        <v>2.437800141539759</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_first.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4361296364593478</v>
+        <v>0.08045581118042906</v>
       </c>
       <c r="C2">
-        <v>1.228935639045771</v>
+        <v>0.8732618137668521</v>
       </c>
       <c r="D2">
-        <v>4.43906361144334</v>
+        <v>1.58169622500375</v>
       </c>
       <c r="E2">
-        <v>2.106908543682744</v>
+        <v>1.25765505008478</v>
       </c>
       <c r="F2">
-        <v>2.112178325622019</v>
+        <v>1.286073186806879</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -452,19 +452,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.579113769187642</v>
+        <v>0.2468526762731521</v>
       </c>
       <c r="C3">
-        <v>1.63506778697617</v>
+        <v>1.012662856856466</v>
       </c>
       <c r="D3">
-        <v>13.14160213705591</v>
+        <v>1.831719206154512</v>
       </c>
       <c r="E3">
-        <v>3.625134775019531</v>
+        <v>1.353410213554823</v>
       </c>
       <c r="F3">
-        <v>3.662792626675848</v>
+        <v>1.362022745984608</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6174351661100629</v>
+        <v>0.2298317591110559</v>
       </c>
       <c r="C4">
-        <v>1.151642498604435</v>
+        <v>1.539245905603442</v>
       </c>
       <c r="D4">
-        <v>6.041101927293427</v>
+        <v>10.85920011347265</v>
       </c>
       <c r="E4">
-        <v>2.45786531919335</v>
+        <v>3.295330046212769</v>
       </c>
       <c r="F4">
-        <v>2.437800141539759</v>
+        <v>3.368485765113963</v>
       </c>
       <c r="G4">
         <v>21</v>

--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_first.xlsx
@@ -429,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08045581118042906</v>
+        <v>0.07934597682786895</v>
       </c>
       <c r="C2">
-        <v>0.8732618137668521</v>
+        <v>0.8361153429330909</v>
       </c>
       <c r="D2">
-        <v>1.58169622500375</v>
+        <v>1.509943688438317</v>
       </c>
       <c r="E2">
-        <v>1.25765505008478</v>
+        <v>1.228797659681331</v>
       </c>
       <c r="F2">
-        <v>1.286073186806879</v>
+        <v>1.255089712156638</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,19 +452,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2468526762731521</v>
+        <v>0.2468526762609122</v>
       </c>
       <c r="C3">
-        <v>1.012662856856466</v>
+        <v>1.012662856844227</v>
       </c>
       <c r="D3">
-        <v>1.831719206154512</v>
+        <v>1.831719206147035</v>
       </c>
       <c r="E3">
-        <v>1.353410213554823</v>
+        <v>1.353410213552061</v>
       </c>
       <c r="F3">
-        <v>1.362022745984608</v>
+        <v>1.362022745984056</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2298317591110559</v>
+        <v>0.2298317591258757</v>
       </c>
       <c r="C4">
-        <v>1.539245905603442</v>
+        <v>1.539245905618261</v>
       </c>
       <c r="D4">
-        <v>10.85920011347265</v>
+        <v>10.85920011349375</v>
       </c>
       <c r="E4">
-        <v>3.295330046212769</v>
+        <v>3.29533004621597</v>
       </c>
       <c r="F4">
-        <v>3.368485765113963</v>
+        <v>3.368485765116188</v>
       </c>
       <c r="G4">
         <v>21</v>

--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_first.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2468526762609122</v>
+        <v>0.2379616757713074</v>
       </c>
       <c r="C3">
-        <v>1.012662856844227</v>
+        <v>0.9704757615466515</v>
       </c>
       <c r="D3">
-        <v>1.831719206147035</v>
+        <v>1.752157255497987</v>
       </c>
       <c r="E3">
-        <v>1.353410213552061</v>
+        <v>1.323690770345546</v>
       </c>
       <c r="F3">
-        <v>1.362022745984056</v>
+        <v>1.331390667622807</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2298317591258757</v>
+        <v>0.2465549019837904</v>
       </c>
       <c r="C4">
-        <v>1.539245905618261</v>
+        <v>1.496450223635613</v>
       </c>
       <c r="D4">
-        <v>10.85920011349375</v>
+        <v>10.38184075314966</v>
       </c>
       <c r="E4">
-        <v>3.29533004621597</v>
+        <v>3.22208639753028</v>
       </c>
       <c r="F4">
-        <v>3.368485765116188</v>
+        <v>3.288241182326179</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
